--- a/Data/Datas/X_行动/行动列表/jynew事件.xlsx
+++ b/Data/Datas/X_行动/行动列表/jynew事件.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="165">
   <si>
     <t>##var</t>
   </si>
@@ -688,6 +688,21 @@
   </si>
   <si>
     <t>地块建筑占领者判断,当前地块,有,玩家</t>
+  </si>
+  <si>
+    <t>探索</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>&lt;color=white&gt;[探索]&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>i18n/action/name/explorer</t>
+  </si>
+  <si>
+    <t>Area/jy_探索</t>
   </si>
   <si>
     <t xml:space="preserve"> 角色交互</t>
@@ -807,7 +822,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -840,11 +855,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -976,7 +986,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1022,12 +1032,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,52 +1333,52 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1386,153 +1390,147 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="24">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="47">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="26" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="24" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="26" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="47" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="47" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="24" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="24" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="47" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="24" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="47" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="24" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="24" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1925,207 +1923,209 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="17.6" style="9" customWidth="1"/>
-    <col min="4" max="4" width="26" style="9" customWidth="1"/>
-    <col min="5" max="5" width="24" style="9" customWidth="1"/>
-    <col min="6" max="6" width="33.2" style="9" customWidth="1"/>
-    <col min="7" max="7" width="27.7" style="9" customWidth="1"/>
-    <col min="8" max="8" width="34.1" style="9" customWidth="1"/>
-    <col min="9" max="10" width="25.9" customWidth="1"/>
-    <col min="11" max="11" width="39.5" customWidth="1"/>
-    <col min="12" max="12" width="46.5" customWidth="1"/>
-    <col min="13" max="13" width="54.875" customWidth="1"/>
-    <col min="14" max="14" width="40.9" customWidth="1"/>
-    <col min="15" max="15" width="47.7" customWidth="1"/>
-    <col min="16" max="16" width="48.2" customWidth="1"/>
-    <col min="17" max="17" width="46" customWidth="1"/>
-    <col min="18" max="18" width="44.4" customWidth="1"/>
-    <col min="19" max="19" width="44.5" customWidth="1"/>
-    <col min="20" max="20" width="11.2" customWidth="1"/>
-    <col min="21" max="21" width="11.7" customWidth="1"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="3" width="17.6" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24" style="10" customWidth="1"/>
+    <col min="6" max="6" width="33.2" style="10" customWidth="1"/>
+    <col min="7" max="7" width="27.7" style="10" customWidth="1"/>
+    <col min="8" max="8" width="34.1" style="10" customWidth="1"/>
+    <col min="9" max="10" width="25.9" style="8" customWidth="1"/>
+    <col min="11" max="11" width="39.5" style="8" customWidth="1"/>
+    <col min="12" max="12" width="46.5" style="8" customWidth="1"/>
+    <col min="13" max="13" width="54.875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="40.9" style="8" customWidth="1"/>
+    <col min="15" max="15" width="47.7" style="8" customWidth="1"/>
+    <col min="16" max="16" width="48.2" style="8" customWidth="1"/>
+    <col min="17" max="17" width="46" style="8" customWidth="1"/>
+    <col min="18" max="18" width="44.4" style="8" customWidth="1"/>
+    <col min="19" max="19" width="44.5" style="8" customWidth="1"/>
+    <col min="20" max="20" width="11.2" style="8" customWidth="1"/>
+    <col min="21" max="21" width="11.7" style="8" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="13.5" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="13.5" spans="1:21">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="23"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="21"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="13.5" spans="1:22">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="13.5" spans="1:22">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="T4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="16"/>
+      <c r="V4" s="17"/>
     </row>
     <row r="5" s="5" customFormat="1" ht="13.5" spans="1:1">
       <c r="A5" s="5" t="s">
@@ -2133,809 +2133,843 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="10">
         <v>0</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="13.5" spans="1:8">
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" s="6" customFormat="1" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" s="7" customFormat="1" spans="2:22">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="19">
         <v>0</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="V8" s="18"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="V8" s="19"/>
     </row>
     <row r="9" s="7" customFormat="1" ht="13.5" spans="2:22">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="19">
         <v>0</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="V9" s="18"/>
-    </row>
-    <row r="10" customFormat="1" spans="2:11">
-      <c r="B10" s="9" t="s">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="V9" s="19"/>
+    </row>
+    <row r="10" s="8" customFormat="1" spans="2:11">
+      <c r="B10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="18" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="10">
         <v>0</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" customFormat="1" spans="2:11">
-      <c r="B11" s="9" t="s">
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" s="8" customFormat="1" spans="2:11">
+      <c r="B11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="18" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="10">
         <v>0</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" customFormat="1" spans="2:11">
-      <c r="B12" s="9" t="s">
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" s="8" customFormat="1" spans="2:11">
+      <c r="B12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="18" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="10">
         <v>0</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" s="8" customFormat="1" spans="1:8">
-      <c r="A13" s="8" t="s">
+    <row r="13" s="9" customFormat="1" spans="1:8">
+      <c r="A13" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" customFormat="1" spans="2:17">
-      <c r="B14" s="21" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" s="8" customFormat="1" spans="2:17">
+      <c r="B14" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="10">
         <v>1</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="Q14" s="21"/>
-    </row>
-    <row r="15" customFormat="1" spans="2:17">
-      <c r="B15" s="9" t="s">
+      <c r="Q14" s="20"/>
+    </row>
+    <row r="15" s="8" customFormat="1" spans="2:17">
+      <c r="B15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="10">
         <v>0</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="Q15" s="21"/>
-    </row>
-    <row r="16" customFormat="1" spans="2:17">
-      <c r="B16" s="21" t="s">
+      <c r="Q15" s="20"/>
+    </row>
+    <row r="16" s="8" customFormat="1" spans="2:17">
+      <c r="B16" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="10">
         <v>0</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="M16" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="N16" s="9"/>
-      <c r="Q16" s="21"/>
-    </row>
-    <row r="17" customFormat="1" ht="22.5" customHeight="1" spans="2:14">
-      <c r="B17" s="9" t="s">
+      <c r="N16" s="10"/>
+      <c r="Q16" s="20"/>
+    </row>
+    <row r="17" s="8" customFormat="1" ht="22.5" customHeight="1" spans="2:14">
+      <c r="B17" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="10">
         <v>0</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" customFormat="1" spans="2:12">
-      <c r="B18" s="9" t="s">
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" s="8" customFormat="1" spans="2:12">
+      <c r="B18" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="10">
         <v>0</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" customFormat="1" spans="2:12">
-      <c r="B19" s="9" t="s">
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" s="8" customFormat="1" spans="2:12">
+      <c r="B19" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="10">
         <v>0</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="L19" s="22" t="s">
+      <c r="L19" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="2:12">
-      <c r="B20" s="9" t="s">
+    <row r="20" s="8" customFormat="1" spans="2:12">
+      <c r="B20" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="10">
         <v>1</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" customFormat="1" spans="2:14">
-      <c r="B21" s="9" t="s">
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" s="8" customFormat="1" spans="2:14">
+      <c r="B21" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="10">
         <v>1</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="M21" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="2:12">
-      <c r="B22" s="9" t="s">
+    <row r="22" s="8" customFormat="1" spans="2:12">
+      <c r="B22" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="10">
         <v>1</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="2:12">
-      <c r="B23" s="9" t="s">
+    <row r="23" s="8" customFormat="1" spans="2:12">
+      <c r="B23" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="10">
         <v>1</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" customFormat="1" spans="2:14">
-      <c r="B24" s="9" t="s">
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" s="8" customFormat="1" spans="2:14">
+      <c r="B24" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="10">
         <v>1</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L24" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="N24" s="9"/>
-    </row>
-    <row r="25" customFormat="1" spans="2:13">
-      <c r="B25" s="9" t="s">
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" s="8" customFormat="1" spans="2:13">
+      <c r="B25" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="10">
         <v>1</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="L25" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="M25" s="21" t="s">
+      <c r="M25" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" s="8" customFormat="1" spans="1:8">
-      <c r="A26" s="8" t="s">
+    <row r="26" s="8" customFormat="1" spans="2:13">
+      <c r="B26" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" customFormat="1" spans="2:11">
-      <c r="B27" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
+      <c r="D26" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I26" s="10">
+        <v>1</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="20"/>
+    </row>
+    <row r="27" s="9" customFormat="1" spans="1:8">
+      <c r="A27" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" s="8" customFormat="1" spans="2:11">
+      <c r="B28" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="I27" s="9">
+      <c r="F28" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I28" s="10">
         <v>0</v>
       </c>
-      <c r="J27" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" customFormat="1" spans="2:11">
-      <c r="B28" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
+      <c r="J28" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" s="8" customFormat="1" spans="2:11">
+      <c r="B29" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="I28" s="9">
+      <c r="F29" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I29" s="10">
         <v>0</v>
       </c>
-      <c r="J28" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" customFormat="1" spans="2:11">
-      <c r="B29" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="J29" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" s="8" customFormat="1" spans="2:11">
+      <c r="B30" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F30" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0</v>
+      </c>
+      <c r="J30" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="I29" s="9">
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" s="8" customFormat="1" ht="22.5" customHeight="1" spans="2:12">
+      <c r="B31" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" s="10">
         <v>0</v>
       </c>
-      <c r="J29" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" customFormat="1" ht="22.5" customHeight="1" spans="2:12">
-      <c r="B30" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
+      <c r="J31" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" s="8" customFormat="1" spans="2:12">
+      <c r="B32" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="I30" s="9">
+      <c r="F32" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="I32" s="10">
         <v>0</v>
       </c>
-      <c r="J30" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="L30" s="9"/>
-    </row>
-    <row r="31" customFormat="1" spans="2:12">
-      <c r="B31" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
+      <c r="J32" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" s="8" customFormat="1" spans="2:12">
+      <c r="B33" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="I31" s="9">
+      <c r="F33" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" s="10">
         <v>0</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" customFormat="1" spans="2:12">
-      <c r="B32" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="I32" s="9">
-        <v>0</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="L32" s="9"/>
+      <c r="J33" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="L33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
